--- a/Back_end_python/db/estructuras.xlsx
+++ b/Back_end_python/db/estructuras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onleonel\Escritorio\geoportal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenin\Documents\GitHub\Proyecto_python\Back_end_python\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7076A7A2-1B2B-4F9A-8730-C7CC3A5A1DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739E634C-A5D9-469D-8B0B-9AB909A5144C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ACC28395-DF70-4E3B-A924-8A7F25FC890A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ACC28395-DF70-4E3B-A924-8A7F25FC890A}"/>
   </bookViews>
   <sheets>
     <sheet name="Estructuras" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Censo de Población y Vivienda El Salvador 2024</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Departamento</t>
   </si>
@@ -126,12 +123,6 @@
   </si>
   <si>
     <t>Nacional</t>
-  </si>
-  <si>
-    <t>Fuente: Banco Central de Reserva de El Salvador</t>
-  </si>
-  <si>
-    <t>Tipo de estructura por departamento</t>
   </si>
   <si>
     <t>Estructuras Total</t>
@@ -145,7 +136,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,23 +159,9 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Museo Sans 300"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Museo Sans 300"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Museo Sans 100"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -208,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -236,21 +213,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -261,17 +229,11 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -613,16 +575,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF35576-7B3A-401D-8B21-20F57B1D2891}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
@@ -630,11 +592,11 @@
     <col min="7" max="7" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="11.42578125" style="1"/>
     <col min="20" max="20" width="11.42578125" style="1" customWidth="1"/>
     <col min="21" max="31" width="11.42578125" style="1"/>
@@ -642,835 +604,773 @@
     <col min="47" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="16.5" thickBot="1"/>
+    <row r="2" spans="1:15" ht="67.5" thickTop="1" thickBot="1">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+    <row r="3" spans="1:15" ht="16.5" thickTop="1">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>121844</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5507</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4963</v>
+      </c>
+      <c r="E3" s="2">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2">
+        <v>364</v>
+      </c>
+      <c r="G3" s="2">
+        <v>94</v>
+      </c>
+      <c r="H3" s="2">
+        <v>259</v>
+      </c>
+      <c r="I3" s="2">
+        <v>47</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2080</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1683</v>
+      </c>
+      <c r="L3" s="2">
+        <v>133</v>
+      </c>
+      <c r="M3" s="2">
+        <v>64825</v>
+      </c>
+      <c r="N3" s="2">
+        <v>8473</v>
+      </c>
+      <c r="O3" s="2">
+        <v>210302</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2">
-        <v>121844</v>
+        <v>205767</v>
       </c>
       <c r="C4" s="2">
-        <v>5507</v>
+        <v>12554</v>
       </c>
       <c r="D4" s="2">
-        <v>4963</v>
+        <v>10919</v>
       </c>
       <c r="E4" s="2">
-        <v>30</v>
+        <v>653</v>
       </c>
       <c r="F4" s="2">
-        <v>364</v>
+        <v>605</v>
       </c>
       <c r="G4" s="2">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="H4" s="2">
-        <v>259</v>
+        <v>392</v>
       </c>
       <c r="I4" s="2">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="J4" s="2">
-        <v>2080</v>
+        <v>3155</v>
       </c>
       <c r="K4" s="2">
-        <v>1683</v>
+        <v>2603</v>
       </c>
       <c r="L4" s="2">
-        <v>133</v>
+        <v>340</v>
       </c>
       <c r="M4" s="2">
-        <v>64825</v>
+        <v>61283</v>
       </c>
       <c r="N4" s="2">
-        <v>8473</v>
+        <v>15276</v>
       </c>
       <c r="O4" s="2">
-        <v>210302</v>
+        <v>313918</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2">
-        <v>205767</v>
+        <v>161201</v>
       </c>
       <c r="C5" s="2">
-        <v>12554</v>
+        <v>10020</v>
       </c>
       <c r="D5" s="2">
-        <v>10919</v>
+        <v>6867</v>
       </c>
       <c r="E5" s="2">
-        <v>653</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2">
-        <v>605</v>
+        <v>452</v>
       </c>
       <c r="G5" s="2">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="H5" s="2">
-        <v>392</v>
+        <v>281</v>
       </c>
       <c r="I5" s="2">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="J5" s="2">
-        <v>3155</v>
+        <v>1887</v>
       </c>
       <c r="K5" s="2">
-        <v>2603</v>
+        <v>2433</v>
       </c>
       <c r="L5" s="2">
-        <v>340</v>
+        <v>183</v>
       </c>
       <c r="M5" s="2">
-        <v>61283</v>
+        <v>55765</v>
       </c>
       <c r="N5" s="2">
-        <v>15276</v>
+        <v>15128</v>
       </c>
       <c r="O5" s="2">
-        <v>313918</v>
+        <v>254479</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="2">
-        <v>161201</v>
+        <v>81415</v>
       </c>
       <c r="C6" s="2">
-        <v>10020</v>
+        <v>5328</v>
       </c>
       <c r="D6" s="2">
-        <v>6867</v>
+        <v>3302</v>
       </c>
       <c r="E6" s="2">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="G6" s="2">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="H6" s="2">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="I6" s="2">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="J6" s="2">
-        <v>1887</v>
+        <v>1928</v>
       </c>
       <c r="K6" s="2">
-        <v>2433</v>
+        <v>1018</v>
       </c>
       <c r="L6" s="2">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="M6" s="2">
-        <v>55765</v>
+        <v>56932</v>
       </c>
       <c r="N6" s="2">
-        <v>15128</v>
+        <v>16367</v>
       </c>
       <c r="O6" s="2">
-        <v>254479</v>
+        <v>167583</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2">
-        <v>81415</v>
+        <v>274683</v>
       </c>
       <c r="C7" s="2">
-        <v>5328</v>
+        <v>17446</v>
       </c>
       <c r="D7" s="2">
-        <v>3302</v>
+        <v>9868</v>
       </c>
       <c r="E7" s="2">
-        <v>54</v>
+        <v>1827</v>
       </c>
       <c r="F7" s="2">
-        <v>500</v>
+        <v>863</v>
       </c>
       <c r="G7" s="2">
-        <v>157</v>
+        <v>246</v>
       </c>
       <c r="H7" s="2">
-        <v>323</v>
+        <v>607</v>
       </c>
       <c r="I7" s="2">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="J7" s="2">
-        <v>1928</v>
+        <v>3590</v>
       </c>
       <c r="K7" s="2">
-        <v>1018</v>
+        <v>3420</v>
       </c>
       <c r="L7" s="2">
-        <v>227</v>
+        <v>722</v>
       </c>
       <c r="M7" s="2">
-        <v>56932</v>
+        <v>108727</v>
       </c>
       <c r="N7" s="2">
-        <v>16367</v>
+        <v>31064</v>
       </c>
       <c r="O7" s="2">
-        <v>167583</v>
+        <v>453304</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>274683</v>
+        <v>513961</v>
       </c>
       <c r="C8" s="2">
-        <v>17446</v>
+        <v>34613</v>
       </c>
       <c r="D8" s="2">
-        <v>9868</v>
+        <v>22214</v>
       </c>
       <c r="E8" s="2">
-        <v>1827</v>
+        <v>14636</v>
       </c>
       <c r="F8" s="2">
-        <v>863</v>
+        <v>1301</v>
       </c>
       <c r="G8" s="2">
-        <v>246</v>
+        <v>518</v>
       </c>
       <c r="H8" s="2">
-        <v>607</v>
+        <v>1135</v>
       </c>
       <c r="I8" s="2">
-        <v>241</v>
+        <v>511</v>
       </c>
       <c r="J8" s="2">
-        <v>3590</v>
+        <v>3365</v>
       </c>
       <c r="K8" s="2">
-        <v>3420</v>
+        <v>5116</v>
       </c>
       <c r="L8" s="2">
-        <v>722</v>
+        <v>1300</v>
       </c>
       <c r="M8" s="2">
-        <v>108727</v>
+        <v>87939</v>
       </c>
       <c r="N8" s="2">
-        <v>31064</v>
+        <v>47111</v>
       </c>
       <c r="O8" s="2">
-        <v>453304</v>
+        <v>733720</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>513961</v>
+        <v>83716</v>
       </c>
       <c r="C9" s="2">
-        <v>34613</v>
+        <v>4324</v>
       </c>
       <c r="D9" s="2">
-        <v>22214</v>
+        <v>2476</v>
       </c>
       <c r="E9" s="2">
-        <v>14636</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2">
-        <v>1301</v>
+        <v>277</v>
       </c>
       <c r="G9" s="2">
-        <v>518</v>
+        <v>87</v>
       </c>
       <c r="H9" s="2">
-        <v>1135</v>
+        <v>212</v>
       </c>
       <c r="I9" s="2">
-        <v>511</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2">
-        <v>3365</v>
+        <v>1521</v>
       </c>
       <c r="K9" s="2">
-        <v>5116</v>
+        <v>1029</v>
       </c>
       <c r="L9" s="2">
-        <v>1300</v>
+        <v>126</v>
       </c>
       <c r="M9" s="2">
-        <v>87939</v>
+        <v>42614</v>
       </c>
       <c r="N9" s="2">
-        <v>47111</v>
+        <v>6884</v>
       </c>
       <c r="O9" s="2">
-        <v>733720</v>
+        <v>143338</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>83716</v>
+        <v>122456</v>
       </c>
       <c r="C10" s="2">
-        <v>4324</v>
+        <v>6841</v>
       </c>
       <c r="D10" s="2">
-        <v>2476</v>
+        <v>3426</v>
       </c>
       <c r="E10" s="2">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2">
-        <v>277</v>
+        <v>462</v>
       </c>
       <c r="G10" s="2">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="H10" s="2">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="I10" s="2">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="J10" s="2">
-        <v>1521</v>
+        <v>1831</v>
       </c>
       <c r="K10" s="2">
-        <v>1029</v>
+        <v>1696</v>
       </c>
       <c r="L10" s="2">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="M10" s="2">
-        <v>42614</v>
+        <v>66435</v>
       </c>
       <c r="N10" s="2">
-        <v>6884</v>
+        <v>11870</v>
       </c>
       <c r="O10" s="2">
-        <v>143338</v>
+        <v>215762</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="2">
-        <v>122456</v>
+        <v>52811</v>
       </c>
       <c r="C11" s="2">
-        <v>6841</v>
+        <v>2931</v>
       </c>
       <c r="D11" s="2">
-        <v>3426</v>
+        <v>2242</v>
       </c>
       <c r="E11" s="2">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="F11" s="2">
-        <v>462</v>
+        <v>340</v>
       </c>
       <c r="G11" s="2">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="H11" s="2">
-        <v>288</v>
+        <v>133</v>
       </c>
       <c r="I11" s="2">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2">
-        <v>1831</v>
+        <v>693</v>
       </c>
       <c r="K11" s="2">
-        <v>1696</v>
+        <v>517</v>
       </c>
       <c r="L11" s="2">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="M11" s="2">
-        <v>66435</v>
+        <v>42854</v>
       </c>
       <c r="N11" s="2">
-        <v>11870</v>
+        <v>8324</v>
       </c>
       <c r="O11" s="2">
-        <v>215762</v>
+        <v>111067</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="2">
-        <v>52811</v>
+        <v>63112</v>
       </c>
       <c r="C12" s="2">
-        <v>2931</v>
+        <v>3463</v>
       </c>
       <c r="D12" s="2">
-        <v>2242</v>
+        <v>2687</v>
       </c>
       <c r="E12" s="2">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="G12" s="2">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="H12" s="2">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c r="I12" s="2">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="J12" s="2">
-        <v>693</v>
+        <v>1033</v>
       </c>
       <c r="K12" s="2">
-        <v>517</v>
+        <v>767</v>
       </c>
       <c r="L12" s="2">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="M12" s="2">
-        <v>42854</v>
+        <v>55024</v>
       </c>
       <c r="N12" s="2">
-        <v>8324</v>
+        <v>8435</v>
       </c>
       <c r="O12" s="2">
-        <v>111067</v>
+        <v>135494</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2">
-        <v>63112</v>
+        <v>136978</v>
       </c>
       <c r="C13" s="2">
-        <v>3463</v>
+        <v>6895</v>
       </c>
       <c r="D13" s="2">
-        <v>2687</v>
+        <v>3855</v>
       </c>
       <c r="E13" s="2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2">
-        <v>365</v>
+        <v>566</v>
       </c>
       <c r="G13" s="2">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="H13" s="2">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="I13" s="2">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="J13" s="2">
-        <v>1033</v>
+        <v>1932</v>
       </c>
       <c r="K13" s="2">
-        <v>767</v>
+        <v>1986</v>
       </c>
       <c r="L13" s="2">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="M13" s="2">
-        <v>55024</v>
+        <v>71978</v>
       </c>
       <c r="N13" s="2">
-        <v>8435</v>
+        <v>10697</v>
       </c>
       <c r="O13" s="2">
-        <v>135494</v>
+        <v>235733</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="2">
-        <v>136978</v>
+        <v>185303</v>
       </c>
       <c r="C14" s="2">
-        <v>6895</v>
+        <v>11690</v>
       </c>
       <c r="D14" s="2">
-        <v>3855</v>
+        <v>5373</v>
       </c>
       <c r="E14" s="2">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2">
-        <v>566</v>
+        <v>740</v>
       </c>
       <c r="G14" s="2">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="H14" s="2">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="I14" s="2">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J14" s="2">
-        <v>1932</v>
+        <v>2665</v>
       </c>
       <c r="K14" s="2">
-        <v>1986</v>
+        <v>2149</v>
       </c>
       <c r="L14" s="2">
-        <v>182</v>
+        <v>295</v>
       </c>
       <c r="M14" s="2">
-        <v>71978</v>
+        <v>170352</v>
       </c>
       <c r="N14" s="2">
-        <v>10697</v>
+        <v>23306</v>
       </c>
       <c r="O14" s="2">
-        <v>235733</v>
+        <v>402590</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2">
-        <v>185303</v>
+        <v>70511</v>
       </c>
       <c r="C15" s="2">
-        <v>11690</v>
+        <v>2769</v>
       </c>
       <c r="D15" s="2">
-        <v>5373</v>
+        <v>1666</v>
       </c>
       <c r="E15" s="2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2">
-        <v>740</v>
+        <v>385</v>
       </c>
       <c r="G15" s="2">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="H15" s="2">
-        <v>306</v>
+        <v>225</v>
       </c>
       <c r="I15" s="2">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="J15" s="2">
-        <v>2665</v>
+        <v>1036</v>
       </c>
       <c r="K15" s="2">
-        <v>2149</v>
+        <v>937</v>
       </c>
       <c r="L15" s="2">
-        <v>295</v>
+        <v>125</v>
       </c>
       <c r="M15" s="2">
-        <v>170352</v>
+        <v>68294</v>
       </c>
       <c r="N15" s="2">
-        <v>23306</v>
+        <v>10375</v>
       </c>
       <c r="O15" s="2">
-        <v>402590</v>
+        <v>156444</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="2">
-        <v>70511</v>
+        <v>99707</v>
       </c>
       <c r="C16" s="2">
-        <v>2769</v>
+        <v>4181</v>
       </c>
       <c r="D16" s="2">
-        <v>1666</v>
+        <v>2096</v>
       </c>
       <c r="E16" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2">
-        <v>385</v>
+        <v>473</v>
       </c>
       <c r="G16" s="2">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="H16" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I16" s="2">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="J16" s="2">
-        <v>1036</v>
+        <v>1874</v>
       </c>
       <c r="K16" s="2">
-        <v>937</v>
+        <v>1222</v>
       </c>
       <c r="L16" s="2">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="M16" s="2">
-        <v>68294</v>
+        <v>57216</v>
       </c>
       <c r="N16" s="2">
-        <v>10375</v>
+        <v>22890</v>
       </c>
       <c r="O16" s="2">
-        <v>156444</v>
+        <v>190281</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="16.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2">
-        <v>99707</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4181</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2096</v>
-      </c>
-      <c r="E17" s="2">
-        <v>33</v>
-      </c>
-      <c r="F17" s="2">
-        <v>473</v>
-      </c>
-      <c r="G17" s="2">
-        <v>123</v>
-      </c>
-      <c r="H17" s="2">
-        <v>228</v>
-      </c>
-      <c r="I17" s="2">
-        <v>87</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1874</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1222</v>
-      </c>
-      <c r="L17" s="2">
-        <v>151</v>
-      </c>
-      <c r="M17" s="2">
-        <v>57216</v>
-      </c>
-      <c r="N17" s="2">
-        <v>22890</v>
-      </c>
-      <c r="O17" s="2">
-        <v>190281</v>
+      <c r="B17" s="3">
+        <v>2173465</v>
+      </c>
+      <c r="C17" s="3">
+        <v>128562</v>
+      </c>
+      <c r="D17" s="3">
+        <v>81954</v>
+      </c>
+      <c r="E17" s="3">
+        <v>17540</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7693</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2493</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4933</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1664</v>
+      </c>
+      <c r="J17" s="3">
+        <v>28590</v>
+      </c>
+      <c r="K17" s="3">
+        <v>26576</v>
+      </c>
+      <c r="L17" s="3">
+        <v>4107</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1010238</v>
+      </c>
+      <c r="N17" s="3">
+        <v>236200</v>
+      </c>
+      <c r="O17" s="3">
+        <v>3724015</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2173465</v>
-      </c>
-      <c r="C18" s="3">
-        <v>128562</v>
-      </c>
-      <c r="D18" s="3">
-        <v>81954</v>
-      </c>
-      <c r="E18" s="3">
-        <v>17540</v>
-      </c>
-      <c r="F18" s="3">
-        <v>7693</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2493</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4933</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1664</v>
-      </c>
-      <c r="J18" s="3">
-        <v>28590</v>
-      </c>
-      <c r="K18" s="3">
-        <v>26576</v>
-      </c>
-      <c r="L18" s="3">
-        <v>4107</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1010238</v>
-      </c>
-      <c r="N18" s="3">
-        <v>236200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>3724015</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-    </row>
+    <row r="18" spans="1:15" ht="16.5" thickTop="1"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A19:O19"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="313f4996-b919-4f00-b21c-15f2583e5308" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="27160ef2-b1a0-4e0b-a979-9938934b2ceb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1703,21 +1603,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="313f4996-b919-4f00-b21c-15f2583e5308" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="27160ef2-b1a0-4e0b-a979-9938934b2ceb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4FC8692-A9DE-4937-A720-3B0B35361149}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E8603F1-AF61-4AE1-BED5-B7CD63375754}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="313f4996-b919-4f00-b21c-15f2583e5308"/>
-    <ds:schemaRef ds:uri="27160ef2-b1a0-4e0b-a979-9938934b2ceb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1742,9 +1641,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E8603F1-AF61-4AE1-BED5-B7CD63375754}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4FC8692-A9DE-4937-A720-3B0B35361149}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="313f4996-b919-4f00-b21c-15f2583e5308"/>
+    <ds:schemaRef ds:uri="27160ef2-b1a0-4e0b-a979-9938934b2ceb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>